--- a/examples/VASP_to_thermdat/example1/thermdat_input.xlsx
+++ b/examples/VASP_to_thermdat/example1/thermdat_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\PyMuTT\examples\VASP_to_thermdat\example1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F443BA15-6464-4F59-B457-047AE24A5266}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E355B06E-3805-4A69-86F6-C45468FBA5E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -87,12 +87,6 @@
     <t>The total electronic spin. (0 for molecules in which all electrons are paired, 0.5 for a free radical with a single unpaired electron, 1.0 for a triplet with two unpaired electrons, such as O_2.)</t>
   </si>
   <si>
-    <t>elements~H</t>
-  </si>
-  <si>
-    <t>elements~O</t>
-  </si>
-  <si>
     <t>O2</t>
   </si>
   <si>
@@ -123,21 +117,9 @@
     <t>Number of O in formula unit</t>
   </si>
   <si>
-    <t>elements~Pt</t>
-  </si>
-  <si>
     <t>Number of Pt in formula unit</t>
   </si>
   <si>
-    <t>vib_wavenumber~1</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~2</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~3</t>
-  </si>
-  <si>
     <t>Vibrational wavenumber in 1/cm</t>
   </si>
   <si>
@@ -157,6 +139,18 @@
   </si>
   <si>
     <t>.\O2\CONTCAR</t>
+  </si>
+  <si>
+    <t>vib_wavenumber</t>
+  </si>
+  <si>
+    <t>elements.H</t>
+  </si>
+  <si>
+    <t>elements.O</t>
+  </si>
+  <si>
+    <t>elements.Pt</t>
   </si>
 </sst>
 </file>
@@ -530,7 +524,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,13 +541,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -574,13 +568,13 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -595,16 +589,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -622,13 +616,13 @@
         <v>19</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -652,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>-14.2209</v>
@@ -661,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -696,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>-6.7598000000000003</v>
@@ -705,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -719,7 +713,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -734,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>-9.86</v>
@@ -743,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -757,10 +751,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -772,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -790,10 +784,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -823,10 +817,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -838,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -846,10 +840,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -861,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -878,11 +872,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -893,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -910,10 +904,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -925,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>7</v>

--- a/examples/VASP_to_thermdat/example1/thermdat_input.xlsx
+++ b/examples/VASP_to_thermdat/example1/thermdat_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\PyMuTT\examples\VASP_to_thermdat\example1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E355B06E-3805-4A69-86F6-C45468FBA5E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2C001-4A93-4573-8A83-8AC4068D63EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -33,15 +33,9 @@
     <t>phase</t>
   </si>
   <si>
-    <t>thermo_model</t>
-  </si>
-  <si>
     <t>potentialenergy</t>
   </si>
   <si>
-    <t>geometry</t>
-  </si>
-  <si>
     <t>atoms</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>nonlinear</t>
-  </si>
-  <si>
     <t>Name of the species</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t>DFT energy in eV. If this is an adsorbed species, substract the energy of the surface</t>
   </si>
   <si>
-    <t>Supported options are 'linear', 'nonlinear', 'monatomic'</t>
-  </si>
-  <si>
     <t>Location to find atoms. See ase.read for supported formats</t>
   </si>
   <si>
@@ -151,6 +136,9 @@
   </si>
   <si>
     <t>elements.Pt</t>
+  </si>
+  <si>
+    <t>statmech_model</t>
   </si>
 </sst>
 </file>
@@ -521,19 +509,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="17" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,100 +529,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -646,39 +628,36 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>-14.2209</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3825.4340000000002</v>
       </c>
       <c r="L3">
-        <v>3825.4340000000002</v>
+        <v>3710.2642000000001</v>
       </c>
       <c r="M3">
-        <v>3710.2642000000001</v>
-      </c>
-      <c r="N3">
         <v>1582.432</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -690,33 +669,30 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>-6.7598000000000003</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
         <v>4306.1792999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -728,33 +704,30 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>-9.86</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
         <v>2205</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -766,62 +739,62 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6">
+        <v>566.639543</v>
+      </c>
       <c r="L6">
+        <v>554.39612099999999</v>
+      </c>
+      <c r="M6">
+        <v>277.73190699999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7">
         <v>566.639543</v>
       </c>
-      <c r="M6">
+      <c r="L7">
         <v>554.39612099999999</v>
       </c>
-      <c r="N6">
+      <c r="M7">
         <v>277.73190699999998</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7">
-        <v>566.639543</v>
-      </c>
-      <c r="M7">
-        <v>554.39612099999999</v>
-      </c>
-      <c r="N7">
-        <v>277.73190699999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -832,18 +805,18 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -855,59 +828,59 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>566.639543</v>
+      </c>
       <c r="L9">
+        <v>554.39612099999999</v>
+      </c>
+      <c r="M9">
+        <v>277.73190699999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>566.639543</v>
       </c>
-      <c r="M9">
+      <c r="L10">
         <v>554.39612099999999</v>
       </c>
-      <c r="N9">
+      <c r="M10">
         <v>277.73190699999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>566.639543</v>
-      </c>
-      <c r="M10">
-        <v>554.39612099999999</v>
-      </c>
-      <c r="N10">
-        <v>277.73190699999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -919,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>7</v>

--- a/examples/VASP_to_thermdat/example1/thermdat_input.xlsx
+++ b/examples/VASP_to_thermdat/example1/thermdat_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\PyMuTT\examples\VASP_to_thermdat\example1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\pMuTT\examples\VASP_to_thermdat\example1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2C001-4A93-4573-8A83-8AC4068D63EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE9804-80C9-479F-8082-8C7824A505E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Harmonic</t>
   </si>
   <si>
-    <t>Type of thermodynamic model. Supported options include IdealGas and Harmonic</t>
-  </si>
-  <si>
     <t>.\H2O\CONTCAR</t>
   </si>
   <si>
@@ -139,6 +136,12 @@
   </si>
   <si>
     <t>statmech_model</t>
+  </si>
+  <si>
+    <t>Electronic</t>
+  </si>
+  <si>
+    <t>Type of thermodynamic model. See presets available here: https://vlachosgroup.github.io/pMuTT/statmech.html?highlight=presets#presets</t>
   </si>
 </sst>
 </file>
@@ -529,16 +532,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -553,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -583,7 +586,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -634,7 +637,7 @@
         <v>-14.2209</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -675,7 +678,7 @@
         <v>-6.7598000000000003</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -710,7 +713,7 @@
         <v>-9.86</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -805,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -892,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>7</v>
